--- a/data/trans_camb/P12C1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P12C1_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,50 +541,68 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>Mz2/M5</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M4</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>M4/M1</t>
+          <t>Mz2/M5</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>42,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>38,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>27,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>20,42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34,46</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29,21</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,67</t>
+          <t>37,16; 49,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,24</t>
+          <t>-8,81; 4,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -0,31</t>
+          <t>33,75; 43,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 3,56</t>
+          <t>21,71; 32,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 0,06</t>
+          <t>-7,72; 2,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,58</t>
+          <t>15,53; 25,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29,97; 38,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 1,8</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25,43; 32,89</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,97%</t>
+          <t>317,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>-2,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,05%</t>
+          <t>239,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>60,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>41,4%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>114,21%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-3,78%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>88,56%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 21,86</t>
+          <t>233,99; 434,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 42,84</t>
+          <t>-14,62; 8,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -0,71</t>
+          <t>185,13; 317,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 7,38</t>
+          <t>44,94; 75,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 0,13</t>
+          <t>-10,24; 3,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 11,31</t>
+          <t>29,7; 53,85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>94,34; 134,69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; 2,91</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71,39; 106,85</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>40,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>40,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>21,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>20,44</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30,84</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,19</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31,12</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 3,91</t>
+          <t>34,16; 47,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 0,23</t>
+          <t>-12,85; 4,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 11,4</t>
+          <t>33,07; 48,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 12,32</t>
+          <t>13,89; 27,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 6,38</t>
+          <t>-10,66; 6,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 4,11</t>
+          <t>10,75; 30,38</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 35,39</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-9,09; 2,81</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24,14; 37,3</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,27%</t>
+          <t>331,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-36,18%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>459,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>41,63%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>98,28%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,12%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>111,46%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 35,09</t>
+          <t>223,24; 480,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,78; 1,99</t>
+          <t>-23,04; 10,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 27,68</t>
+          <t>287,75; 794,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 29,22</t>
+          <t>26,8; 60,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 23,76</t>
+          <t>-14,59; 9,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 15,37</t>
+          <t>20,44; 69,66</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>78,54; 122,84</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-14,16; 4,59</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>77,4; 152,67</t>
         </is>
       </c>
     </row>
@@ -913,7 +1064,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>31,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -923,20 +1074,35 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>19,22</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,73</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -951,7 +1117,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 6,93</t>
+          <t>19,1; 43,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,20 +1127,35 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 8,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>5,7; 31,14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-9,78; 5,38</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 35,7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -989,7 +1170,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,1%</t>
+          <t>232,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -999,20 +1180,35 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>37,45%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-4,46%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>79,79%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1027,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 67,98</t>
+          <t>107,78; 477,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,20 +1233,35 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 17,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>10,32; 68,69</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-24,84; 18,62</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43,38; 124,42</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>40,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>38,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>23,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>20,43</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32,01</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29,64</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,68</t>
+          <t>36,33; 44,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 3,06</t>
+          <t>-5,56; 4,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,64</t>
+          <t>34,49; 42,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,49</t>
+          <t>19,54; 27,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,74</t>
+          <t>-6,47; 2,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,9</t>
+          <t>16,17; 24,49</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>29,14; 35,1</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 1,84</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26,3; 32,64</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>311,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>272,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>41,45%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>103,62%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 13,0</t>
+          <t>244,94; 382,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 23,46</t>
+          <t>-9,82; 9,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 5,65</t>
+          <t>207,64; 336,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 9,64</t>
+          <t>39,07; 60,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 5,67</t>
+          <t>-8,78; 3,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 9,39</t>
+          <t>31,16; 52,78</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>90,11; 118,14</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 3,02</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>78,24; 108,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
